--- a/contratos/contratos-6-2018.xlsx
+++ b/contratos/contratos-6-2018.xlsx
@@ -1210,7 +1210,7 @@
     <t>PAROISSE RODOLFO DANIEL</t>
   </si>
   <si>
-    <t>PARPAGNOLI, PEDRO RICARDO</t>
+    <t>PARPAGNOLI. PEDRO RICARDO</t>
   </si>
   <si>
     <t>PINO ADRIAN MATIAS</t>
@@ -1258,7 +1258,7 @@
     <t>WEIGANDT GERARDO ARTURO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1276,7 +1276,7 @@
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOSONE DANIEL ENRIQUE</t>
@@ -1873,706 +1873,706 @@
     <t>104</t>
   </si>
   <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>66.265,00</t>
-  </si>
-  <si>
-    <t>495.000,00</t>
-  </si>
-  <si>
-    <t>4.965,00</t>
-  </si>
-  <si>
-    <t>2.134,00</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>3.290,00</t>
-  </si>
-  <si>
-    <t>21.712,00</t>
-  </si>
-  <si>
-    <t>1.484,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>19.820,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>545.600,00</t>
-  </si>
-  <si>
-    <t>97.884,00</t>
-  </si>
-  <si>
-    <t>253.198,32</t>
-  </si>
-  <si>
-    <t>130.532,50</t>
-  </si>
-  <si>
-    <t>6.597,27</t>
-  </si>
-  <si>
-    <t>2.640,00</t>
-  </si>
-  <si>
-    <t>2.392,00</t>
-  </si>
-  <si>
-    <t>2.839,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>8.654,50</t>
-  </si>
-  <si>
-    <t>94.325,75</t>
-  </si>
-  <si>
-    <t>38.513,00</t>
-  </si>
-  <si>
-    <t>21.909,44</t>
-  </si>
-  <si>
-    <t>3.327,50</t>
-  </si>
-  <si>
-    <t>19.550,00</t>
-  </si>
-  <si>
-    <t>1.725,00</t>
-  </si>
-  <si>
-    <t>9.875,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>12.100,00</t>
-  </si>
-  <si>
-    <t>13.160,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>28.292,00</t>
-  </si>
-  <si>
-    <t>796,05</t>
-  </si>
-  <si>
-    <t>144,48</t>
-  </si>
-  <si>
-    <t>26.811,63</t>
-  </si>
-  <si>
-    <t>4.164,45</t>
-  </si>
-  <si>
-    <t>168,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>3.211,64</t>
-  </si>
-  <si>
-    <t>1.779,79</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>26.229,00</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>535,41</t>
-  </si>
-  <si>
-    <t>12.322,00</t>
-  </si>
-  <si>
-    <t>2.350,00</t>
-  </si>
-  <si>
-    <t>57.765,03</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>14.648,70</t>
-  </si>
-  <si>
-    <t>63,03</t>
-  </si>
-  <si>
-    <t>21.051,30</t>
-  </si>
-  <si>
-    <t>11.800,00</t>
-  </si>
-  <si>
-    <t>138.462,69</t>
-  </si>
-  <si>
-    <t>244,60</t>
-  </si>
-  <si>
-    <t>890,00</t>
-  </si>
-  <si>
-    <t>141.031,98</t>
-  </si>
-  <si>
-    <t>1.128,20</t>
-  </si>
-  <si>
-    <t>142.936,78</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>8.855,00</t>
-  </si>
-  <si>
-    <t>8.418,15</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>860,00</t>
-  </si>
-  <si>
-    <t>9.313,15</t>
-  </si>
-  <si>
-    <t>12.946,97</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>7.651,99</t>
-  </si>
-  <si>
-    <t>8.420,00</t>
-  </si>
-  <si>
-    <t>62.852,00</t>
-  </si>
-  <si>
-    <t>44.200,00</t>
-  </si>
-  <si>
-    <t>4.775,05</t>
-  </si>
-  <si>
-    <t>65.000,00</t>
-  </si>
-  <si>
-    <t>6.928,00</t>
-  </si>
-  <si>
-    <t>11.199,64</t>
-  </si>
-  <si>
-    <t>1.412,46</t>
-  </si>
-  <si>
-    <t>7.520,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>1.480,00</t>
-  </si>
-  <si>
-    <t>17.750,00</t>
-  </si>
-  <si>
-    <t>6.600,00</t>
-  </si>
-  <si>
-    <t>7.350,00</t>
-  </si>
-  <si>
-    <t>22.255,00</t>
-  </si>
-  <si>
-    <t>58.410,00</t>
-  </si>
-  <si>
-    <t>59.200,00</t>
-  </si>
-  <si>
-    <t>1.315,00</t>
-  </si>
-  <si>
-    <t>1.591,00</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>4.777,00</t>
-  </si>
-  <si>
-    <t>18.834,41</t>
-  </si>
-  <si>
-    <t>56,00</t>
-  </si>
-  <si>
-    <t>1.389,00</t>
-  </si>
-  <si>
-    <t>1.770,00</t>
-  </si>
-  <si>
-    <t>5.300,00</t>
-  </si>
-  <si>
-    <t>10.426,98</t>
-  </si>
-  <si>
-    <t>3.811,65</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>508,00</t>
-  </si>
-  <si>
-    <t>1.190,00</t>
-  </si>
-  <si>
-    <t>3.840,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>564,00</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>11.292,00</t>
-  </si>
-  <si>
-    <t>20.988,60</t>
-  </si>
-  <si>
-    <t>26.385,84</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>1.401,60</t>
-  </si>
-  <si>
-    <t>8.950,00</t>
-  </si>
-  <si>
-    <t>14.985,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>2.798,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>9.200,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>1.420,00</t>
-  </si>
-  <si>
-    <t>8.806,00</t>
-  </si>
-  <si>
-    <t>9.430,56</t>
-  </si>
-  <si>
-    <t>2.580,00</t>
-  </si>
-  <si>
-    <t>25.730,00</t>
-  </si>
-  <si>
-    <t>17.500,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>6.400,00</t>
-  </si>
-  <si>
-    <t>20.988,00</t>
-  </si>
-  <si>
-    <t>66.000,00</t>
-  </si>
-  <si>
-    <t>32.000,00</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>137.000,00</t>
-  </si>
-  <si>
-    <t>2.975,00</t>
-  </si>
-  <si>
-    <t>1.129,63</t>
-  </si>
-  <si>
-    <t>2.033,00</t>
-  </si>
-  <si>
-    <t>7.640,00</t>
-  </si>
-  <si>
-    <t>11.852,00</t>
-  </si>
-  <si>
-    <t>10.740,00</t>
-  </si>
-  <si>
-    <t>3.245,14</t>
-  </si>
-  <si>
-    <t>10.545,02</t>
-  </si>
-  <si>
-    <t>50.805,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>17.017,00</t>
-  </si>
-  <si>
-    <t>7.250,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>36.800,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>20.255,40</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>75.000,00</t>
-  </si>
-  <si>
-    <t>50.160,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>29.095,00</t>
-  </si>
-  <si>
-    <t>14.800,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>6.700,00</t>
-  </si>
-  <si>
-    <t>24.500,00</t>
-  </si>
-  <si>
-    <t>9.700,00</t>
-  </si>
-  <si>
-    <t>229,59</t>
-  </si>
-  <si>
-    <t>5.884,00</t>
-  </si>
-  <si>
-    <t>14.673,18</t>
-  </si>
-  <si>
-    <t>2.165,50</t>
-  </si>
-  <si>
-    <t>39,00</t>
-  </si>
-  <si>
-    <t>50.541,00</t>
-  </si>
-  <si>
-    <t>13.330,00</t>
-  </si>
-  <si>
-    <t>1.174,96</t>
-  </si>
-  <si>
-    <t>1.183,37</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>1.194,99</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>27.697,65</t>
-  </si>
-  <si>
-    <t>1.495,08</t>
-  </si>
-  <si>
-    <t>11.410,00</t>
-  </si>
-  <si>
-    <t>16.181,00</t>
-  </si>
-  <si>
-    <t>10.877,85</t>
-  </si>
-  <si>
-    <t>530,00</t>
-  </si>
-  <si>
-    <t>375,00</t>
-  </si>
-  <si>
-    <t>6.589,05</t>
-  </si>
-  <si>
-    <t>6.270,00</t>
-  </si>
-  <si>
-    <t>170,62</t>
-  </si>
-  <si>
-    <t>9.178,00</t>
-  </si>
-  <si>
-    <t>777,96</t>
-  </si>
-  <si>
-    <t>4.660,00</t>
-  </si>
-  <si>
-    <t>57.421,69</t>
-  </si>
-  <si>
-    <t>2.178,65</t>
-  </si>
-  <si>
-    <t>6.469,12</t>
-  </si>
-  <si>
-    <t>63.450,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>39.999,60</t>
-  </si>
-  <si>
-    <t>35.700,00</t>
-  </si>
-  <si>
-    <t>4.531.034,27</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>7.294.604,00</t>
-  </si>
-  <si>
-    <t>165.500,00</t>
-  </si>
-  <si>
-    <t>159.500,00</t>
-  </si>
-  <si>
-    <t>150.500,00</t>
-  </si>
-  <si>
-    <t>163.625,00</t>
-  </si>
-  <si>
-    <t>269.500,00</t>
-  </si>
-  <si>
-    <t>337.500,00</t>
-  </si>
-  <si>
-    <t>394.500,00</t>
-  </si>
-  <si>
-    <t>199.208,00</t>
-  </si>
-  <si>
-    <t>388.500,00</t>
-  </si>
-  <si>
-    <t>278.000,00</t>
-  </si>
-  <si>
-    <t>155.250,00</t>
-  </si>
-  <si>
-    <t>471.786,81</t>
-  </si>
-  <si>
-    <t>85.070,00</t>
-  </si>
-  <si>
-    <t>453.142,44</t>
-  </si>
-  <si>
-    <t>500.000,71</t>
-  </si>
-  <si>
-    <t>26.004,13</t>
-  </si>
-  <si>
-    <t>289.500,00</t>
-  </si>
-  <si>
-    <t>110.000,00</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>20.250,00</t>
-  </si>
-  <si>
-    <t>20.450,00</t>
-  </si>
-  <si>
-    <t>9.890,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>49.852,00</t>
-  </si>
-  <si>
-    <t>25.500,00</t>
-  </si>
-  <si>
-    <t>22.200,00</t>
-  </si>
-  <si>
-    <t>1.550,00</t>
-  </si>
-  <si>
-    <t>2.239,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>26.481,00</t>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>66265.00</t>
+  </si>
+  <si>
+    <t>495000.00</t>
+  </si>
+  <si>
+    <t>4965.00</t>
+  </si>
+  <si>
+    <t>2134.00</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>3290.00</t>
+  </si>
+  <si>
+    <t>21712.00</t>
+  </si>
+  <si>
+    <t>1484.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>19820.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>545600.00</t>
+  </si>
+  <si>
+    <t>97884.00</t>
+  </si>
+  <si>
+    <t>253198.32</t>
+  </si>
+  <si>
+    <t>130532.50</t>
+  </si>
+  <si>
+    <t>6597.27</t>
+  </si>
+  <si>
+    <t>2640.00</t>
+  </si>
+  <si>
+    <t>2392.00</t>
+  </si>
+  <si>
+    <t>2839.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>8654.50</t>
+  </si>
+  <si>
+    <t>94325.75</t>
+  </si>
+  <si>
+    <t>38513.00</t>
+  </si>
+  <si>
+    <t>21909.44</t>
+  </si>
+  <si>
+    <t>3327.50</t>
+  </si>
+  <si>
+    <t>19550.00</t>
+  </si>
+  <si>
+    <t>1725.00</t>
+  </si>
+  <si>
+    <t>9875.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>12100.00</t>
+  </si>
+  <si>
+    <t>13160.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>28292.00</t>
+  </si>
+  <si>
+    <t>796.05</t>
+  </si>
+  <si>
+    <t>144.48</t>
+  </si>
+  <si>
+    <t>26811.63</t>
+  </si>
+  <si>
+    <t>4164.45</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>3211.64</t>
+  </si>
+  <si>
+    <t>1779.79</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>26229.00</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>535.41</t>
+  </si>
+  <si>
+    <t>12322.00</t>
+  </si>
+  <si>
+    <t>2350.00</t>
+  </si>
+  <si>
+    <t>57765.03</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>14648.70</t>
+  </si>
+  <si>
+    <t>63.03</t>
+  </si>
+  <si>
+    <t>21051.30</t>
+  </si>
+  <si>
+    <t>11800.00</t>
+  </si>
+  <si>
+    <t>138462.69</t>
+  </si>
+  <si>
+    <t>244.60</t>
+  </si>
+  <si>
+    <t>890.00</t>
+  </si>
+  <si>
+    <t>141031.98</t>
+  </si>
+  <si>
+    <t>1128.20</t>
+  </si>
+  <si>
+    <t>142936.78</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>8855.00</t>
+  </si>
+  <si>
+    <t>8418.15</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>860.00</t>
+  </si>
+  <si>
+    <t>9313.15</t>
+  </si>
+  <si>
+    <t>12946.97</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>7651.99</t>
+  </si>
+  <si>
+    <t>8420.00</t>
+  </si>
+  <si>
+    <t>62852.00</t>
+  </si>
+  <si>
+    <t>44200.00</t>
+  </si>
+  <si>
+    <t>4775.05</t>
+  </si>
+  <si>
+    <t>65000.00</t>
+  </si>
+  <si>
+    <t>6928.00</t>
+  </si>
+  <si>
+    <t>11199.64</t>
+  </si>
+  <si>
+    <t>1412.46</t>
+  </si>
+  <si>
+    <t>7520.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>1480.00</t>
+  </si>
+  <si>
+    <t>17750.00</t>
+  </si>
+  <si>
+    <t>6600.00</t>
+  </si>
+  <si>
+    <t>7350.00</t>
+  </si>
+  <si>
+    <t>22255.00</t>
+  </si>
+  <si>
+    <t>58410.00</t>
+  </si>
+  <si>
+    <t>59200.00</t>
+  </si>
+  <si>
+    <t>1315.00</t>
+  </si>
+  <si>
+    <t>1591.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>4777.00</t>
+  </si>
+  <si>
+    <t>18834.41</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>1389.00</t>
+  </si>
+  <si>
+    <t>1770.00</t>
+  </si>
+  <si>
+    <t>5300.00</t>
+  </si>
+  <si>
+    <t>10426.98</t>
+  </si>
+  <si>
+    <t>3811.65</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>508.00</t>
+  </si>
+  <si>
+    <t>1190.00</t>
+  </si>
+  <si>
+    <t>3840.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>564.00</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>11292.00</t>
+  </si>
+  <si>
+    <t>20988.60</t>
+  </si>
+  <si>
+    <t>26385.84</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>1401.60</t>
+  </si>
+  <si>
+    <t>8950.00</t>
+  </si>
+  <si>
+    <t>14985.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>2798.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>9200.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>1420.00</t>
+  </si>
+  <si>
+    <t>8806.00</t>
+  </si>
+  <si>
+    <t>9430.56</t>
+  </si>
+  <si>
+    <t>2580.00</t>
+  </si>
+  <si>
+    <t>25730.00</t>
+  </si>
+  <si>
+    <t>17500.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>6400.00</t>
+  </si>
+  <si>
+    <t>20988.00</t>
+  </si>
+  <si>
+    <t>66000.00</t>
+  </si>
+  <si>
+    <t>32000.00</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>137000.00</t>
+  </si>
+  <si>
+    <t>2975.00</t>
+  </si>
+  <si>
+    <t>1129.63</t>
+  </si>
+  <si>
+    <t>2033.00</t>
+  </si>
+  <si>
+    <t>7640.00</t>
+  </si>
+  <si>
+    <t>11852.00</t>
+  </si>
+  <si>
+    <t>10740.00</t>
+  </si>
+  <si>
+    <t>3245.14</t>
+  </si>
+  <si>
+    <t>10545.02</t>
+  </si>
+  <si>
+    <t>50805.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>17017.00</t>
+  </si>
+  <si>
+    <t>7250.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>36800.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>20255.40</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>75000.00</t>
+  </si>
+  <si>
+    <t>50160.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>29095.00</t>
+  </si>
+  <si>
+    <t>14800.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>6700.00</t>
+  </si>
+  <si>
+    <t>24500.00</t>
+  </si>
+  <si>
+    <t>9700.00</t>
+  </si>
+  <si>
+    <t>229.59</t>
+  </si>
+  <si>
+    <t>5884.00</t>
+  </si>
+  <si>
+    <t>14673.18</t>
+  </si>
+  <si>
+    <t>2165.50</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>50541.00</t>
+  </si>
+  <si>
+    <t>13330.00</t>
+  </si>
+  <si>
+    <t>1174.96</t>
+  </si>
+  <si>
+    <t>1183.37</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>1194.99</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>27697.65</t>
+  </si>
+  <si>
+    <t>1495.08</t>
+  </si>
+  <si>
+    <t>11410.00</t>
+  </si>
+  <si>
+    <t>16181.00</t>
+  </si>
+  <si>
+    <t>10877.85</t>
+  </si>
+  <si>
+    <t>530.00</t>
+  </si>
+  <si>
+    <t>375.00</t>
+  </si>
+  <si>
+    <t>6589.05</t>
+  </si>
+  <si>
+    <t>6270.00</t>
+  </si>
+  <si>
+    <t>170.62</t>
+  </si>
+  <si>
+    <t>9178.00</t>
+  </si>
+  <si>
+    <t>777.96</t>
+  </si>
+  <si>
+    <t>4660.00</t>
+  </si>
+  <si>
+    <t>57421.69</t>
+  </si>
+  <si>
+    <t>2178.65</t>
+  </si>
+  <si>
+    <t>6469.12</t>
+  </si>
+  <si>
+    <t>63450.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>39999.60</t>
+  </si>
+  <si>
+    <t>35700.00</t>
+  </si>
+  <si>
+    <t>4531034.27</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>7294604.00</t>
+  </si>
+  <si>
+    <t>165500.00</t>
+  </si>
+  <si>
+    <t>159500.00</t>
+  </si>
+  <si>
+    <t>150500.00</t>
+  </si>
+  <si>
+    <t>163625.00</t>
+  </si>
+  <si>
+    <t>269500.00</t>
+  </si>
+  <si>
+    <t>337500.00</t>
+  </si>
+  <si>
+    <t>394500.00</t>
+  </si>
+  <si>
+    <t>199208.00</t>
+  </si>
+  <si>
+    <t>388500.00</t>
+  </si>
+  <si>
+    <t>278000.00</t>
+  </si>
+  <si>
+    <t>155250.00</t>
+  </si>
+  <si>
+    <t>471786.81</t>
+  </si>
+  <si>
+    <t>85070.00</t>
+  </si>
+  <si>
+    <t>453142.44</t>
+  </si>
+  <si>
+    <t>500000.71</t>
+  </si>
+  <si>
+    <t>26004.13</t>
+  </si>
+  <si>
+    <t>289500.00</t>
+  </si>
+  <si>
+    <t>110000.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>20250.00</t>
+  </si>
+  <si>
+    <t>20450.00</t>
+  </si>
+  <si>
+    <t>9890.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>49852.00</t>
+  </si>
+  <si>
+    <t>25500.00</t>
+  </si>
+  <si>
+    <t>22200.00</t>
+  </si>
+  <si>
+    <t>1550.00</t>
+  </si>
+  <si>
+    <t>2239.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>26481.00</t>
   </si>
 </sst>
 </file>
